--- a/Manuscript/Software List of Modules.xlsx
+++ b/Manuscript/Software List of Modules.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCC6092-883B-4ED3-922C-B5D885C8AAD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32B2B0B-4DE3-4852-8611-37227688CFF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Software Modules" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,31 +20,206 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
   <si>
     <t>Modules</t>
   </si>
   <si>
-    <t>Programmer</t>
-  </si>
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>Rhea Shane M. Chiong</t>
-  </si>
-  <si>
-    <t>Jephunneh C. Mabini</t>
-  </si>
-  <si>
-    <t>Cristian G. Paragoso</t>
+    <t>Learning Center</t>
+  </si>
+  <si>
+    <t>Educator</t>
+  </si>
+  <si>
+    <t>Parents/Student</t>
+  </si>
+  <si>
+    <t>Account Management</t>
+  </si>
+  <si>
+    <t>Hiring Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      1. Hiring Profile/Resume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      1. Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2. Authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3. Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      4. Profiling</t>
+  </si>
+  <si>
+    <t>Enrollment Module</t>
+  </si>
+  <si>
+    <t>Scheduling Module</t>
+  </si>
+  <si>
+    <t>Teaching Assistance Module</t>
+  </si>
+  <si>
+    <t>Programmer/s</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No. of Points </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1 point per module per user</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Number of Modules per User </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>equals total no. of points per user</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Total Number of Modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2. Job Searching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3. Job Posting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      1. Input Class Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2. Update Class Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3. Input Schedules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      7. Notification of Changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      1. Retrieve Class Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2. Suggest Daily Lesson Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3. Keep Student Records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      4. Track Student Progress</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      4. Job Suggestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      5. Hire Suggestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      6. Hiring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      1. Input/Add Course Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2. Search/Display Course List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3. Course Selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      4. Fee Calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      5. Enrolment Details and Processes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      7. Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      8. Record Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      6. Payment Scheme Selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      5. Update Schedules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      4. Schedule Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      6. Generate Calendar of Activities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +235,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -69,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -77,16 +279,174 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -369,56 +729,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="5" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="37" style="1" customWidth="1"/>
+    <col min="3" max="5" width="18.140625" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="7">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7">
+        <v>5</v>
+      </c>
+      <c r="E41" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="8">
+        <v>12</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
+  <mergeCells count="20">
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Manuscript/Software List of Modules.xlsx
+++ b/Manuscript/Software List of Modules.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32B2B0B-4DE3-4852-8611-37227688CFF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBAA174-8D8F-42BF-A19D-A875F10C67CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software Modules" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Educator</t>
-  </si>
-  <si>
-    <t>Parents/Student</t>
   </si>
   <si>
     <t>Account Management</t>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t xml:space="preserve">      6. Generate Calendar of Activities</t>
+  </si>
+  <si>
+    <t>Parent/Student</t>
   </si>
 </sst>
 </file>
@@ -380,73 +380,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,532 +731,536 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="37" style="1" customWidth="1"/>
-    <col min="3" max="5" width="18.140625" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="9"/>
+    <col min="3" max="5" width="18.140625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="4" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="2" t="s">
+      <c r="B41" s="24"/>
+      <c r="C41" s="5">
+        <v>4</v>
+      </c>
+      <c r="D41" s="5">
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="10">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-    </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="6" t="s">
+      <c r="E41" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="11">
         <v>12</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="7">
-        <v>1</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="7">
-        <v>0</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1</v>
-      </c>
-      <c r="E40" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="7">
-        <v>4</v>
-      </c>
-      <c r="D41" s="7">
-        <v>5</v>
-      </c>
-      <c r="E41" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="8">
-        <v>12</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="C42:E42"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A14"/>
@@ -1273,10 +1277,6 @@
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
